--- a/Pity  Cash.xlsx
+++ b/Pity  Cash.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11310" windowHeight="7530" tabRatio="480"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11310" windowHeight="7530" tabRatio="480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>Note</t>
   </si>
@@ -186,30 +185,6 @@
   </si>
   <si>
     <t>Please revert back for further clarification.</t>
-  </si>
-  <si>
-    <t>Due</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Taka</t>
-  </si>
-  <si>
-    <t>One telecom</t>
-  </si>
-  <si>
-    <t>06.11.17</t>
-  </si>
-  <si>
-    <t>Grameen</t>
-  </si>
-  <si>
-    <t>phone palece</t>
-  </si>
-  <si>
-    <t>sonali</t>
   </si>
   <si>
     <t>G.T Actu:Sales</t>
@@ -384,7 +359,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,14 +426,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="31">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -618,32 +587,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -716,8 +659,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -726,26 +671,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -760,65 +692,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -872,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1001,17 +875,17 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="10" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="10" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1029,15 +903,15 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1071,81 +945,25 @@
     <xf numFmtId="21" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1160,6 +978,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1169,52 +990,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1729,7 +1532,7 @@
   </sheetPr>
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:H12"/>
     </sheetView>
   </sheetViews>
@@ -1759,8 +1562,8 @@
       <c r="B1" s="6"/>
       <c r="E1" s="23"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="125" t="s">
-        <v>53</v>
+      <c r="G1" s="87" t="s">
+        <v>45</v>
       </c>
       <c r="I1" s="6"/>
     </row>
@@ -1778,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H2" s="36" t="s">
         <v>1</v>
@@ -2107,36 +1910,36 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="21.75" thickBot="1">
-      <c r="B12" s="108" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="109"/>
+      <c r="B12" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="90"/>
       <c r="D12" s="17">
         <f>SUM(D3:D11)</f>
         <v>0</v>
       </c>
       <c r="E12" s="26"/>
-      <c r="F12" s="108" t="s">
+      <c r="F12" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="109"/>
+      <c r="G12" s="90"/>
       <c r="H12" s="17">
         <f>SUM(H3:H11)</f>
         <v>133000</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="108" t="s">
+      <c r="J12" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="K12" s="109"/>
+      <c r="K12" s="90"/>
       <c r="L12" s="12">
         <f>SUM(L3:L11)</f>
         <v>0</v>
       </c>
-      <c r="N12" s="108" t="s">
+      <c r="N12" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="O12" s="109"/>
+      <c r="O12" s="90"/>
       <c r="P12" s="17">
         <f>SUM(P3:P11)</f>
         <v>0</v>
@@ -2157,15 +1960,15 @@
     </row>
     <row r="14" spans="1:16" ht="19.5" customHeight="1" thickBot="1">
       <c r="B14" s="27"/>
-      <c r="C14" s="104" t="s">
-        <v>50</v>
+      <c r="C14" s="84" t="s">
+        <v>42</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="25">
         <f>D12+H12+L12</f>
         <v>133000</v>
       </c>
-      <c r="F14" s="110"/>
+      <c r="F14" s="91"/>
       <c r="G14" s="22">
         <f>E14-F14</f>
         <v>133000</v>
@@ -2182,7 +1985,7 @@
       <c r="C15" s="27"/>
       <c r="D15" s="70"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="111"/>
+      <c r="F15" s="92"/>
       <c r="G15" s="8"/>
       <c r="H15" s="19"/>
       <c r="I15" s="18"/>
@@ -2492,7 +2295,7 @@
         <f>B24*C24</f>
         <v>0</v>
       </c>
-      <c r="E24" s="105"/>
+      <c r="E24" s="85"/>
       <c r="F24" s="2">
         <v>2</v>
       </c>
@@ -2558,36 +2361,36 @@
     </row>
     <row r="26" spans="1:16" ht="19.5" customHeight="1" thickBot="1">
       <c r="A26" s="19"/>
-      <c r="B26" s="108" t="s">
+      <c r="B26" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="109"/>
+      <c r="C26" s="90"/>
       <c r="D26" s="17">
         <f>SUM(D17:D25)</f>
         <v>0</v>
       </c>
       <c r="E26" s="26"/>
-      <c r="F26" s="108" t="s">
+      <c r="F26" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="109"/>
+      <c r="G26" s="90"/>
       <c r="H26" s="17">
         <f>SUM(H17:H25)</f>
         <v>0</v>
       </c>
       <c r="I26" s="13"/>
-      <c r="J26" s="108" t="s">
+      <c r="J26" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="K26" s="109"/>
+      <c r="K26" s="90"/>
       <c r="L26" s="17">
         <f>SUM(L17:L25)</f>
         <v>0</v>
       </c>
-      <c r="N26" s="108" t="s">
+      <c r="N26" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="O26" s="109"/>
+      <c r="O26" s="90"/>
       <c r="P26" s="17">
         <f>SUM(P17:P25)</f>
         <v>0</v>
@@ -2616,7 +2419,7 @@
         <f>D26+H26+L26</f>
         <v>0</v>
       </c>
-      <c r="F28" s="110"/>
+      <c r="F28" s="91"/>
       <c r="G28" s="22">
         <f>F28-E28</f>
         <v>0</v>
@@ -2637,7 +2440,7 @@
       <c r="C29" s="21"/>
       <c r="D29" s="19"/>
       <c r="E29" s="23"/>
-      <c r="F29" s="111"/>
+      <c r="F29" s="92"/>
       <c r="G29" s="8"/>
       <c r="H29" s="44"/>
       <c r="I29" s="4"/>
@@ -2660,7 +2463,7 @@
       <c r="H30" s="44"/>
       <c r="I30" s="4"/>
       <c r="J30" s="19"/>
-      <c r="K30" s="103"/>
+      <c r="K30" s="83"/>
       <c r="L30" s="19"/>
       <c r="M30" s="40"/>
       <c r="N30" s="40"/>
@@ -2688,10 +2491,10 @@
     <row r="32" spans="1:16" ht="19.5" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" s="21"/>
-      <c r="C32" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="106">
+      <c r="C32" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="86">
         <v>1000</v>
       </c>
       <c r="E32" s="69"/>
@@ -2753,8 +2556,8 @@
       <c r="G35" s="19"/>
       <c r="H35" s="33"/>
       <c r="I35" s="21"/>
-      <c r="J35" s="107"/>
-      <c r="K35" s="107"/>
+      <c r="J35" s="88"/>
+      <c r="K35" s="88"/>
       <c r="L35" s="10"/>
       <c r="M35" s="40"/>
       <c r="N35" s="40"/>
@@ -2978,623 +2781,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G60"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="B2:E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="24.28515625" defaultRowHeight="20.25" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="24.28515625" style="79"/>
-    <col min="2" max="6" width="24.28515625" style="70"/>
-    <col min="7" max="16384" width="24.28515625" style="79"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="78"/>
-    </row>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="88" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="89" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="89" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="90" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="78"/>
-    </row>
-    <row r="3" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="91" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="94">
-        <v>1047545</v>
-      </c>
-      <c r="E3" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="78"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="95">
-        <v>296700</v>
-      </c>
-      <c r="E4" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="78"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="93" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="96">
-        <v>101940</v>
-      </c>
-      <c r="E5" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="78"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="92" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="95">
-        <v>77390</v>
-      </c>
-      <c r="E6" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="78"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.25" hidden="1" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="78"/>
-    </row>
-    <row r="8" spans="1:7" ht="33.75" hidden="1" customHeight="1">
-      <c r="A8" s="78"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="78"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.25" hidden="1" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="78"/>
-    </row>
-    <row r="10" spans="1:7" ht="20.25" hidden="1" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="78"/>
-    </row>
-    <row r="11" spans="1:7" ht="20.25" hidden="1" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="78"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.25" hidden="1" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="78"/>
-    </row>
-    <row r="13" spans="1:7" ht="20.25" hidden="1" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="78"/>
-    </row>
-    <row r="14" spans="1:7" ht="20.25" hidden="1" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="78"/>
-    </row>
-    <row r="15" spans="1:7" ht="20.25" hidden="1" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="78"/>
-    </row>
-    <row r="16" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="78"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="78"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A18" s="78"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="78"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A19" s="78"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="78"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="78"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84">
-        <f>SUM(D3:D20)</f>
-        <v>1523575</v>
-      </c>
-      <c r="E21" s="85"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="78"/>
-    </row>
-    <row r="22" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="78"/>
-    </row>
-    <row r="23" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="78"/>
-    </row>
-    <row r="24" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="78"/>
-    </row>
-    <row r="25" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A25" s="78"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="78"/>
-    </row>
-    <row r="26" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A26" s="78"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="78"/>
-    </row>
-    <row r="27" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A27" s="78"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="78"/>
-    </row>
-    <row r="28" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A28" s="78"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="78"/>
-    </row>
-    <row r="29" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A29" s="78"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="78"/>
-    </row>
-    <row r="30" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A30" s="78"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="78"/>
-    </row>
-    <row r="31" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A31" s="78"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="78"/>
-    </row>
-    <row r="32" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A32" s="78"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="78"/>
-    </row>
-    <row r="33" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A33" s="78"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="78"/>
-    </row>
-    <row r="34" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A34" s="78"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="78"/>
-    </row>
-    <row r="35" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A35" s="78"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="78"/>
-    </row>
-    <row r="36" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A36" s="78"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="78"/>
-    </row>
-    <row r="37" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A37" s="78"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="78"/>
-    </row>
-    <row r="38" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A38" s="78"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="78"/>
-    </row>
-    <row r="39" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A39" s="78"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="78"/>
-    </row>
-    <row r="40" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A40" s="78"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="78"/>
-    </row>
-    <row r="41" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A41" s="78"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="78"/>
-    </row>
-    <row r="42" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A42" s="78"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="78"/>
-    </row>
-    <row r="43" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A43" s="78"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="78"/>
-    </row>
-    <row r="44" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A44" s="78"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="78"/>
-    </row>
-    <row r="45" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A45" s="78"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="78"/>
-    </row>
-    <row r="46" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A46" s="78"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="78"/>
-    </row>
-    <row r="47" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A47" s="78"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="78"/>
-    </row>
-    <row r="48" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A48" s="78"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="78"/>
-    </row>
-    <row r="49" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A49" s="78"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="78"/>
-    </row>
-    <row r="50" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A50" s="78"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="78"/>
-    </row>
-    <row r="51" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A51" s="78"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="78"/>
-    </row>
-    <row r="52" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A52" s="78"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="78"/>
-    </row>
-    <row r="53" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A53" s="78"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="78"/>
-    </row>
-    <row r="54" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A54" s="78"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="78"/>
-    </row>
-    <row r="55" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A55" s="78"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="78"/>
-    </row>
-    <row r="56" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A56" s="78"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="78"/>
-    </row>
-    <row r="57" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A57" s="78"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="78"/>
-    </row>
-    <row r="58" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A58" s="78"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="78"/>
-    </row>
-    <row r="59" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A59" s="78"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="78"/>
-    </row>
-    <row r="60" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A60" s="78"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="78"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B24:C24"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
@@ -3790,46 +2980,46 @@
       <c r="M12" s="63"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="121" t="s">
+      <c r="A15" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="117" t="s">
+      <c r="A16" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="118"/>
-      <c r="C16" s="118"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="123" t="s">
+      <c r="A17" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="121" t="s">
+      <c r="A18" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="122"/>
-      <c r="C18" s="122"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="117" t="s">
+      <c r="A19" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="118"/>
-      <c r="C19" s="118"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="46"/>
@@ -4145,26 +3335,26 @@
       </c>
     </row>
     <row r="53" spans="3:13" ht="21.75" thickBot="1">
-      <c r="C53" s="108" t="s">
+      <c r="C53" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="109"/>
+      <c r="D53" s="90"/>
       <c r="E53" s="17">
         <f>SUM(E44:E52)</f>
         <v>0</v>
       </c>
-      <c r="G53" s="108" t="s">
+      <c r="G53" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="H53" s="109"/>
+      <c r="H53" s="90"/>
       <c r="I53" s="17">
         <f>SUM(I44:I52)</f>
         <v>0</v>
       </c>
-      <c r="K53" s="108" t="s">
+      <c r="K53" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="L53" s="109"/>
+      <c r="L53" s="90"/>
       <c r="M53" s="17">
         <f>SUM(M44:M52)</f>
         <v>0</v>
@@ -4183,24 +3373,24 @@
     </row>
     <row r="59" spans="3:13" ht="15.75" thickBot="1"/>
     <row r="60" spans="3:13">
-      <c r="K60" s="97" t="s">
-        <v>48</v>
-      </c>
-      <c r="L60" s="98">
+      <c r="K60" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="L60" s="78">
         <v>10238940</v>
       </c>
-      <c r="M60" s="99">
+      <c r="M60" s="79">
         <v>6306</v>
       </c>
     </row>
     <row r="61" spans="3:13" ht="15.75" thickBot="1">
-      <c r="K61" s="100" t="s">
-        <v>49</v>
-      </c>
-      <c r="L61" s="102">
+      <c r="K61" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="L61" s="82">
         <v>10563386.632499998</v>
       </c>
-      <c r="M61" s="101">
+      <c r="M61" s="81">
         <v>6950</v>
       </c>
     </row>
@@ -4220,56 +3410,56 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <controls>
-    <control shapeId="1074" r:id="rId3" name="Control 50"/>
-    <control shapeId="1073" r:id="rId4" name="Control 49"/>
-    <control shapeId="1072" r:id="rId5" name="Control 48"/>
-    <control shapeId="1071" r:id="rId6" name="Control 47"/>
-    <control shapeId="1070" r:id="rId7" name="Control 46"/>
-    <control shapeId="1069" r:id="rId8" name="Control 45"/>
-    <control shapeId="1068" r:id="rId9" name="Control 44"/>
-    <control shapeId="1067" r:id="rId10" name="Control 43"/>
-    <control shapeId="1066" r:id="rId11" name="Control 42"/>
-    <control shapeId="1065" r:id="rId12" name="Control 41"/>
-    <control shapeId="1064" r:id="rId13" name="Control 40"/>
-    <control shapeId="1063" r:id="rId14" name="Control 39"/>
-    <control shapeId="1062" r:id="rId15" name="Control 38"/>
-    <control shapeId="1061" r:id="rId16" name="Control 37"/>
-    <control shapeId="1060" r:id="rId17" name="Control 36"/>
-    <control shapeId="1059" r:id="rId18" name="Control 35"/>
-    <control shapeId="1058" r:id="rId19" name="Control 34"/>
-    <control shapeId="1057" r:id="rId20" name="Control 33"/>
-    <control shapeId="1056" r:id="rId21" name="Control 32"/>
-    <control shapeId="1055" r:id="rId22" name="Control 31"/>
-    <control shapeId="1054" r:id="rId23" name="Control 30"/>
-    <control shapeId="1053" r:id="rId24" name="Control 29"/>
-    <control shapeId="1052" r:id="rId25" name="Control 28"/>
-    <control shapeId="1051" r:id="rId26" name="Control 27"/>
-    <control shapeId="1050" r:id="rId27" name="Control 26"/>
-    <control shapeId="1049" r:id="rId28" name="Control 25"/>
-    <control shapeId="1048" r:id="rId29" name="Control 24"/>
-    <control shapeId="1047" r:id="rId30" name="Control 23"/>
-    <control shapeId="1046" r:id="rId31" name="Control 22"/>
-    <control shapeId="1045" r:id="rId32" name="Control 21"/>
-    <control shapeId="1044" r:id="rId33" name="Control 20"/>
-    <control shapeId="1043" r:id="rId34" name="Control 19"/>
-    <control shapeId="1042" r:id="rId35" name="Control 18"/>
-    <control shapeId="1041" r:id="rId36" name="Control 17"/>
-    <control shapeId="1040" r:id="rId37" name="Control 16"/>
-    <control shapeId="1039" r:id="rId38" name="Control 15"/>
-    <control shapeId="1038" r:id="rId39" name="Control 14"/>
-    <control shapeId="1037" r:id="rId40" name="Control 13"/>
-    <control shapeId="1036" r:id="rId41" name="Control 12"/>
-    <control shapeId="1035" r:id="rId42" name="Control 11"/>
-    <control shapeId="1034" r:id="rId43" name="Control 10"/>
-    <control shapeId="1033" r:id="rId44" name="Control 9"/>
-    <control shapeId="1032" r:id="rId45" name="Control 8"/>
-    <control shapeId="1031" r:id="rId46" name="Control 7"/>
-    <control shapeId="1030" r:id="rId47" name="Control 6"/>
-    <control shapeId="1029" r:id="rId48" name="Control 5"/>
-    <control shapeId="1028" r:id="rId49" name="Control 4"/>
-    <control shapeId="1027" r:id="rId50" name="Control 3"/>
-    <control shapeId="1026" r:id="rId51" name="Control 2"/>
-    <control shapeId="1025" r:id="rId52" name="Control 1"/>
+    <control shapeId="1025" r:id="rId3" name="Control 1"/>
+    <control shapeId="1026" r:id="rId4" name="Control 2"/>
+    <control shapeId="1027" r:id="rId5" name="Control 3"/>
+    <control shapeId="1028" r:id="rId6" name="Control 4"/>
+    <control shapeId="1029" r:id="rId7" name="Control 5"/>
+    <control shapeId="1030" r:id="rId8" name="Control 6"/>
+    <control shapeId="1031" r:id="rId9" name="Control 7"/>
+    <control shapeId="1032" r:id="rId10" name="Control 8"/>
+    <control shapeId="1033" r:id="rId11" name="Control 9"/>
+    <control shapeId="1034" r:id="rId12" name="Control 10"/>
+    <control shapeId="1035" r:id="rId13" name="Control 11"/>
+    <control shapeId="1036" r:id="rId14" name="Control 12"/>
+    <control shapeId="1037" r:id="rId15" name="Control 13"/>
+    <control shapeId="1038" r:id="rId16" name="Control 14"/>
+    <control shapeId="1039" r:id="rId17" name="Control 15"/>
+    <control shapeId="1040" r:id="rId18" name="Control 16"/>
+    <control shapeId="1041" r:id="rId19" name="Control 17"/>
+    <control shapeId="1042" r:id="rId20" name="Control 18"/>
+    <control shapeId="1043" r:id="rId21" name="Control 19"/>
+    <control shapeId="1044" r:id="rId22" name="Control 20"/>
+    <control shapeId="1045" r:id="rId23" name="Control 21"/>
+    <control shapeId="1046" r:id="rId24" name="Control 22"/>
+    <control shapeId="1047" r:id="rId25" name="Control 23"/>
+    <control shapeId="1048" r:id="rId26" name="Control 24"/>
+    <control shapeId="1049" r:id="rId27" name="Control 25"/>
+    <control shapeId="1050" r:id="rId28" name="Control 26"/>
+    <control shapeId="1051" r:id="rId29" name="Control 27"/>
+    <control shapeId="1052" r:id="rId30" name="Control 28"/>
+    <control shapeId="1053" r:id="rId31" name="Control 29"/>
+    <control shapeId="1054" r:id="rId32" name="Control 30"/>
+    <control shapeId="1055" r:id="rId33" name="Control 31"/>
+    <control shapeId="1056" r:id="rId34" name="Control 32"/>
+    <control shapeId="1057" r:id="rId35" name="Control 33"/>
+    <control shapeId="1058" r:id="rId36" name="Control 34"/>
+    <control shapeId="1059" r:id="rId37" name="Control 35"/>
+    <control shapeId="1060" r:id="rId38" name="Control 36"/>
+    <control shapeId="1061" r:id="rId39" name="Control 37"/>
+    <control shapeId="1062" r:id="rId40" name="Control 38"/>
+    <control shapeId="1063" r:id="rId41" name="Control 39"/>
+    <control shapeId="1064" r:id="rId42" name="Control 40"/>
+    <control shapeId="1065" r:id="rId43" name="Control 41"/>
+    <control shapeId="1066" r:id="rId44" name="Control 42"/>
+    <control shapeId="1067" r:id="rId45" name="Control 43"/>
+    <control shapeId="1068" r:id="rId46" name="Control 44"/>
+    <control shapeId="1069" r:id="rId47" name="Control 45"/>
+    <control shapeId="1070" r:id="rId48" name="Control 46"/>
+    <control shapeId="1071" r:id="rId49" name="Control 47"/>
+    <control shapeId="1072" r:id="rId50" name="Control 48"/>
+    <control shapeId="1073" r:id="rId51" name="Control 49"/>
+    <control shapeId="1074" r:id="rId52" name="Control 50"/>
   </controls>
 </worksheet>
 </file>